--- a/public/data/mission.xlsx
+++ b/public/data/mission.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F66390A-57D6-4B43-80D5-987B8C866453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279403A3-17B6-4540-8FA2-C8871EC5A3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="JP" sheetId="1" r:id="rId1"/>
-    <sheet name="ZH" sheetId="2" r:id="rId2"/>
-    <sheet name="EN" sheetId="4" r:id="rId3"/>
+    <sheet name="日本語" sheetId="1" r:id="rId1"/>
+    <sheet name="中文" sheetId="2" r:id="rId2"/>
+    <sheet name="English" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/public/data/mission.xlsx
+++ b/public/data/mission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279403A3-17B6-4540-8FA2-C8871EC5A3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2DA954-5698-44CE-8190-6D2835FC8902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,8 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -518,7 +519,8 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -613,7 +615,8 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/public/data/mission.xlsx
+++ b/public/data/mission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2DA954-5698-44CE-8190-6D2835FC8902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F095EA70-EDAD-4A13-B9C3-76E63A2B4BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,10 +136,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -424,87 +431,88 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0</v>
       </c>
     </row>
@@ -520,87 +528,88 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0</v>
       </c>
     </row>
@@ -615,88 +624,89 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0</v>
       </c>
     </row>

--- a/public/data/mission.xlsx
+++ b/public/data/mission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F095EA70-EDAD-4A13-B9C3-76E63A2B4BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912DBE5A-6F2D-4D27-BCC5-1185B3C3D384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>tagIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,14 @@
   </si>
   <si>
     <t>SD picture on loading page</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -136,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -145,6 +153,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,9 +440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -467,20 +478,19 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="19.95" customHeight="1">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.95" customHeight="1">
@@ -488,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -496,13 +506,16 @@
     </row>
     <row r="5" spans="1:4" ht="19.95" customHeight="1">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.95" customHeight="1">
@@ -510,13 +523,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
+    <sortCondition ref="C1:C6"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -526,9 +545,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31AE31C-89C8-41A9-900C-A2E47F7466A0}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -564,20 +583,19 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="19.95" customHeight="1">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.95" customHeight="1">
@@ -585,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -593,13 +611,16 @@
     </row>
     <row r="5" spans="1:4" ht="19.95" customHeight="1">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.95" customHeight="1">
@@ -607,13 +628,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
+    <sortCondition ref="C1:C6"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -625,7 +652,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -661,20 +688,19 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="19.95" customHeight="1">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.95" customHeight="1">
@@ -682,7 +708,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -690,13 +716,16 @@
     </row>
     <row r="5" spans="1:4" ht="19.95" customHeight="1">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.95" customHeight="1">
@@ -704,13 +733,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
+    <sortCondition ref="C1:C6"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/data/mission.xlsx
+++ b/public/data/mission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912DBE5A-6F2D-4D27-BCC5-1185B3C3D384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAF8A57-B35C-4F32-8BA0-44EC5CA01BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>tagIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>2024-12-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxTimes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,23 +442,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="52.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="4" width="12.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,10 +469,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -478,11 +485,14 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1">
+    <row r="3" spans="1:5" ht="19.95" customHeight="1">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -492,8 +502,11 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -503,8 +516,11 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -514,11 +530,14 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1">
+    <row r="6" spans="1:5" ht="19.95" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -528,12 +547,15 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E6">
     <sortCondition ref="C1:C6"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -543,23 +565,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31AE31C-89C8-41A9-900C-A2E47F7466A0}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="52.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="4" width="12.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,10 +592,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -583,11 +608,14 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1">
+    <row r="3" spans="1:5" ht="19.95" customHeight="1">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -597,8 +625,11 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -608,8 +639,11 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -619,11 +653,14 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1">
+    <row r="6" spans="1:5" ht="19.95" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -633,12 +670,15 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E6">
     <sortCondition ref="C1:C6"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -648,23 +688,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3546799F-72C6-45E7-B9AE-E5D18315E0B6}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="52.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="4" width="12.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,10 +715,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -688,11 +731,14 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1">
+    <row r="3" spans="1:5" ht="19.95" customHeight="1">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -702,8 +748,11 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -713,8 +762,11 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -724,11 +776,14 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1">
+    <row r="6" spans="1:5" ht="19.95" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -738,12 +793,15 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E6">
     <sortCondition ref="C1:C6"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/data/mission.xlsx
+++ b/public/data/mission.xlsx
@@ -8,26 +8,140 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAF8A57-B35C-4F32-8BA0-44EC5CA01BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6B0EDE-88B0-487A-AA94-139DFE5431AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
     <sheet name="中文" sheetId="2" r:id="rId2"/>
     <sheet name="English" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rui Yang</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{7C6BB744-4B1F-45B2-B183-247CE55D5716}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Rui Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+times / maxTimes
+向下取整</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rui Yang</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F9EF44DB-1743-498C-95D4-86DB6060EB7C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Rui Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+times / maxTimes
+向下取整</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rui Yang</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{5511642A-F0BC-4ECF-B8F1-68E02D3A44D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Rui Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+times / maxTimes
+向下取整</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>tagIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +213,10 @@
   </si>
   <si>
     <t>maxTimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__percent__</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +238,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -441,12 +572,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -455,10 +586,11 @@
     <col min="2" max="2" width="52.5546875" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="13.77734375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,8 +606,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.95" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -491,8 +626,12 @@
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1">
+      <c r="F2" s="2">
+        <f>FLOOR(C2/D2, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.95" customHeight="1">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -505,8 +644,12 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1">
+      <c r="F3" s="2">
+        <f>FLOOR(C3/D3, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.95" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -514,13 +657,17 @@
         <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <f>FLOOR(C4/D4, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.95" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -536,8 +683,12 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1">
+      <c r="F5" s="2">
+        <f>FLOOR(C5/D5, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.95" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -553,23 +704,28 @@
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="F6" s="2">
+        <f>FLOOR(C6/D6, 1)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E6">
-    <sortCondition ref="C1:C6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F6">
+    <sortCondition ref="F1:F6"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31AE31C-89C8-41A9-900C-A2E47F7466A0}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31AE31C-89C8-41A9-900C-A2E47F7466A0}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -578,10 +734,11 @@
     <col min="2" max="2" width="52.5546875" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="13.77734375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,8 +754,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.95" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -614,8 +774,12 @@
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1">
+      <c r="F2" s="2">
+        <f>FLOOR(C2/D2, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.95" customHeight="1">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -628,8 +792,12 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1">
+      <c r="F3" s="2">
+        <f>FLOOR(C3/D3, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.95" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -637,13 +805,17 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <f>FLOOR(C4/D4, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.95" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -659,8 +831,12 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1">
+      <c r="F5" s="2">
+        <f>FLOOR(C5/D5, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.95" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -676,23 +852,28 @@
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="F6" s="2">
+        <f>FLOOR(C6/D6, 1)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E6">
-    <sortCondition ref="C1:C6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F6">
+    <sortCondition ref="F1:F6"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3546799F-72C6-45E7-B9AE-E5D18315E0B6}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3546799F-72C6-45E7-B9AE-E5D18315E0B6}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -701,10 +882,11 @@
     <col min="2" max="2" width="52.5546875" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="13.77734375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,8 +902,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.95" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -737,8 +922,12 @@
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1">
+      <c r="F2" s="2">
+        <f>FLOOR(C2/D2, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.95" customHeight="1">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -751,8 +940,12 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1">
+      <c r="F3" s="2">
+        <f>FLOOR(C3/D3, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.95" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -760,13 +953,17 @@
         <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <f>FLOOR(C4/D4, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.95" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -782,8 +979,12 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1">
+      <c r="F5" s="2">
+        <f>FLOOR(C5/D5, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.95" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -799,12 +1000,17 @@
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="F6" s="2">
+        <f>FLOOR(C6/D6, 1)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E6">
-    <sortCondition ref="C1:C6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F6">
+    <sortCondition ref="F1:F6"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/data/mission.xlsx
+++ b/public/data/mission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6B0EDE-88B0-487A-AA94-139DFE5431AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7A73EF-20CD-46B2-81E3-9F6E0ADA5C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -41,7 +32,7 @@
     <author>Rui Yang</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{7C6BB744-4B1F-45B2-B183-247CE55D5716}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{7C6BB744-4B1F-45B2-B183-247CE55D5716}">
       <text>
         <r>
           <rPr>
@@ -49,7 +40,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="128"/>
           </rPr>
           <t>Rui Yang:</t>
         </r>
@@ -58,7 +48,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 times / maxTimes
@@ -76,7 +65,7 @@
     <author>Rui Yang</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F9EF44DB-1743-498C-95D4-86DB6060EB7C}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{F9EF44DB-1743-498C-95D4-86DB6060EB7C}">
       <text>
         <r>
           <rPr>
@@ -84,7 +73,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="128"/>
           </rPr>
           <t>Rui Yang:</t>
         </r>
@@ -93,7 +81,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 times / maxTimes
@@ -111,7 +98,7 @@
     <author>Rui Yang</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{5511642A-F0BC-4ECF-B8F1-68E02D3A44D2}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{5511642A-F0BC-4ECF-B8F1-68E02D3A44D2}">
       <text>
         <r>
           <rPr>
@@ -119,7 +106,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="128"/>
           </rPr>
           <t>Rui Yang:</t>
         </r>
@@ -128,7 +114,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 times / maxTimes
@@ -141,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>tagIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +202,18 @@
   </si>
   <si>
     <t>__percent__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://x.com/ApricotLemonTea/status/1870559541634764935</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://x.com/ApricotLemonTea/status/1817130978068090929</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,14 +240,20 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -276,10 +279,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -293,9 +297,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -573,24 +581,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="52.5546875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,10 +617,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.95" customHeight="1">
+    <row r="2" spans="1:7" ht="19.95" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -626,12 +639,15 @@
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2">
         <f>FLOOR(C2/D2, 1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.95" customHeight="1">
+    <row r="3" spans="1:7" ht="19.95" customHeight="1">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -644,12 +660,12 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <f>FLOOR(C3/D3, 1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.95" customHeight="1">
+    <row r="4" spans="1:7" ht="19.95" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -662,12 +678,12 @@
       <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <f>FLOOR(C4/D4, 1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.95" customHeight="1">
+    <row r="5" spans="1:7" ht="19.95" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -683,12 +699,15 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2">
         <f>FLOOR(C5/D5, 1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19.95" customHeight="1">
+    <row r="6" spans="1:7" ht="19.95" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -704,174 +723,31 @@
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4"/>
+      <c r="G6" s="2">
         <f>FLOOR(C6/D6, 1)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F6">
-    <sortCondition ref="F1:F6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
+    <sortCondition ref="G1:G6"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{8D394F15-AE70-4076-8429-1743A563ECD9}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{56C17B09-920A-4E32-B055-E862B78C3D3E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31AE31C-89C8-41A9-900C-A2E47F7466A0}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2">
-        <f>FLOOR(C2/D2, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A3" s="2">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <f>FLOOR(C3/D3, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2">
-        <f>FLOOR(C4/D4, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2">
-        <f>FLOOR(C5/D5, 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2">
-        <f>FLOOR(C6/D6, 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F6">
-    <sortCondition ref="F1:F6"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3546799F-72C6-45E7-B9AE-E5D18315E0B6}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
@@ -882,11 +758,12 @@
     <col min="2" max="2" width="52.5546875" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="17.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,10 +780,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.95" customHeight="1">
+    <row r="2" spans="1:7" ht="19.95" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -922,12 +802,178 @@
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2">
         <f>FLOOR(C2/D2, 1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.95" customHeight="1">
+    <row r="3" spans="1:7" ht="19.95" customHeight="1">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <f>FLOOR(C3/D3, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.95" customHeight="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
+        <f>FLOOR(C4/D4, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.95" customHeight="1">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2">
+        <f>FLOOR(C5/D5, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.95" customHeight="1">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2">
+        <f>FLOOR(C6/D6, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
+    <sortCondition ref="G1:G6"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{9BEA0624-A66A-4722-9802-E6A4D673D124}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{3F86E828-B315-4C62-8B68-CB46CA9A5A11}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3546799F-72C6-45E7-B9AE-E5D18315E0B6}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.95" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2">
+        <f>FLOOR(C2/D2, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.95" customHeight="1">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -940,12 +986,12 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <f>FLOOR(C3/D3, 1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.95" customHeight="1">
+    <row r="4" spans="1:7" ht="19.95" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -958,12 +1004,12 @@
       <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <f>FLOOR(C4/D4, 1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.95" customHeight="1">
+    <row r="5" spans="1:7" ht="19.95" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -979,12 +1025,15 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2">
         <f>FLOOR(C5/D5, 1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19.95" customHeight="1">
+    <row r="6" spans="1:7" ht="19.95" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1000,17 +1049,22 @@
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4"/>
+      <c r="G6" s="2">
         <f>FLOOR(C6/D6, 1)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F6">
-    <sortCondition ref="F1:F6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
+    <sortCondition ref="G1:G6"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{240A5452-EDA1-41CC-86F1-48A9EB0167F1}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{7F4F22C8-A15F-4693-B9D8-C10CADE1CE28}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/public/data/mission.xlsx
+++ b/public/data/mission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7A73EF-20CD-46B2-81E3-9F6E0ADA5C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975D1BEE-2DF2-4117-87FD-5F388F2D61D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>tagIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,18 @@
   </si>
   <si>
     <t>https://x.com/ApricotLemonTea/status/1817130978068090929</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ミッション画面のキャラ立ち絵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务界面左侧的立绘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character picture at the left side of tasks page</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,11 +593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -670,13 +682,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
         <f>FLOOR(C4/D4, 1)</f>
@@ -685,34 +697,28 @@
     </row>
     <row r="5" spans="1:7" ht="19.95" customHeight="1">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
         <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="G5" s="2">
         <f>FLOOR(C5/D5, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.95" customHeight="1">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -720,23 +726,47 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G6" s="2">
         <f>FLOOR(C6/D6, 1)</f>
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:7" ht="19.95" customHeight="1">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2">
+        <f>FLOOR(C7/D7, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
-    <sortCondition ref="G1:G6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+    <sortCondition ref="G1:G7"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{8D394F15-AE70-4076-8429-1743A563ECD9}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{56C17B09-920A-4E32-B055-E862B78C3D3E}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{56C17B09-920A-4E32-B055-E862B78C3D3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>
@@ -745,11 +775,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31AE31C-89C8-41A9-900C-A2E47F7466A0}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -833,13 +863,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
         <f>FLOOR(C4/D4, 1)</f>
@@ -848,34 +878,28 @@
     </row>
     <row r="5" spans="1:7" ht="19.95" customHeight="1">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2">
         <f>FLOOR(C5/D5, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.95" customHeight="1">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -883,23 +907,47 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G6" s="2">
         <f>FLOOR(C6/D6, 1)</f>
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:7" ht="19.95" customHeight="1">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2">
+        <f>FLOOR(C7/D7, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
-    <sortCondition ref="G1:G6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+    <sortCondition ref="G1:G7"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{9BEA0624-A66A-4722-9802-E6A4D673D124}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{3F86E828-B315-4C62-8B68-CB46CA9A5A11}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{3F86E828-B315-4C62-8B68-CB46CA9A5A11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>
@@ -908,11 +956,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3546799F-72C6-45E7-B9AE-E5D18315E0B6}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -996,13 +1044,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
         <f>FLOOR(C4/D4, 1)</f>
@@ -1011,34 +1059,28 @@
     </row>
     <row r="5" spans="1:7" ht="19.95" customHeight="1">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2">
         <f>FLOOR(C5/D5, 1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.95" customHeight="1">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1046,23 +1088,47 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G6" s="2">
         <f>FLOOR(C6/D6, 1)</f>
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:7" ht="19.95" customHeight="1">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2">
+        <f>FLOOR(C7/D7, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
-    <sortCondition ref="G1:G6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+    <sortCondition ref="G1:G7"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{240A5452-EDA1-41CC-86F1-48A9EB0167F1}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{7F4F22C8-A15F-4693-B9D8-C10CADE1CE28}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{7F4F22C8-A15F-4693-B9D8-C10CADE1CE28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>

--- a/public/data/mission.xlsx
+++ b/public/data/mission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975D1BEE-2DF2-4117-87FD-5F388F2D61D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6BC924-D105-48C0-8865-18BC48F52CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -595,9 +595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -655,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="2">
-        <f>FLOOR(C2/D2, 1)</f>
+        <f t="shared" ref="G2:G7" si="0">FLOOR(C2/D2, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <f>FLOOR(C3/D3, 1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <f>FLOOR(C4/D4, 1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -709,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="2">
-        <f>FLOOR(C5/D5, 1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -733,7 +733,7 @@
         <v>24</v>
       </c>
       <c r="G6" s="2">
-        <f>FLOOR(C6/D6, 1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2">
-        <f>FLOOR(C7/D7, 1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -836,7 +836,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="2">
-        <f>FLOOR(C2/D2, 1)</f>
+        <f t="shared" ref="G2:G7" si="0">FLOOR(C2/D2, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <f>FLOOR(C3/D3, 1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <f>FLOOR(C4/D4, 1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -890,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="2">
-        <f>FLOOR(C5/D5, 1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -914,7 +914,7 @@
         <v>24</v>
       </c>
       <c r="G6" s="2">
-        <f>FLOOR(C6/D6, 1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2">
-        <f>FLOOR(C7/D7, 1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -958,9 +958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3546799F-72C6-45E7-B9AE-E5D18315E0B6}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -1017,7 +1017,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="2">
-        <f>FLOOR(C2/D2, 1)</f>
+        <f t="shared" ref="G2:G7" si="0">FLOOR(C2/D2, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <f>FLOOR(C3/D3, 1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <f>FLOOR(C4/D4, 1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="2">
-        <f>FLOOR(C5/D5, 1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
         <v>24</v>
       </c>
       <c r="G6" s="2">
-        <f>FLOOR(C6/D6, 1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2">
-        <f>FLOOR(C7/D7, 1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>

--- a/public/data/mission.xlsx
+++ b/public/data/mission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6BC924-D105-48C0-8865-18BC48F52CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2E5E48-AE7B-4A9B-868F-A4D48C805DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -595,9 +595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -661,7 +661,7 @@
     </row>
     <row r="3" spans="1:7" ht="19.95" customHeight="1">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="4" spans="1:7" ht="19.95" customHeight="1">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>25</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="5" spans="1:7" ht="19.95" customHeight="1">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="7" spans="1:7" ht="19.95" customHeight="1">
       <c r="A7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -779,7 +779,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -842,7 +842,7 @@
     </row>
     <row r="3" spans="1:7" ht="19.95" customHeight="1">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="4" spans="1:7" ht="19.95" customHeight="1">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>26</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="5" spans="1:7" ht="19.95" customHeight="1">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="7" spans="1:7" ht="19.95" customHeight="1">
       <c r="A7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -958,9 +958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3546799F-72C6-45E7-B9AE-E5D18315E0B6}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="3" spans="1:7" ht="19.95" customHeight="1">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="4" spans="1:7" ht="19.95" customHeight="1">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="5" spans="1:7" ht="19.95" customHeight="1">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="7" spans="1:7" ht="19.95" customHeight="1">
       <c r="A7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>

--- a/public/data/mission.xlsx
+++ b/public/data/mission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2E5E48-AE7B-4A9B-868F-A4D48C805DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908062FA-7BCF-4BBF-8BC4-FB2C53FAAE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>Rui Yang:</t>
         </r>
@@ -48,6 +49,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 times / maxTimes
@@ -73,6 +75,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>Rui Yang:</t>
         </r>
@@ -81,6 +84,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 times / maxTimes
@@ -106,6 +110,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>Rui Yang:</t>
         </r>
@@ -114,6 +119,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 times / maxTimes
@@ -233,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,12 +258,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -595,24 +603,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="17.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,36 +643,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1">
+    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" ref="G2:G7" si="0">FLOOR(C2/D2, 1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1">
+    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -677,43 +679,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1">
+    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1">
+    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -737,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1">
+    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -765,7 +773,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{8D394F15-AE70-4076-8429-1743A563ECD9}"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{8D394F15-AE70-4076-8429-1743A563ECD9}"/>
     <hyperlink ref="F6" r:id="rId2" xr:uid="{56C17B09-920A-4E32-B055-E862B78C3D3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -779,21 +787,21 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="52.5" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,36 +824,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1">
+    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" ref="G2:G7" si="0">FLOOR(C2/D2, 1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1">
+    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -858,43 +860,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1">
+    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1">
+    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -918,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1">
+    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -946,7 +954,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{9BEA0624-A66A-4722-9802-E6A4D673D124}"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{9BEA0624-A66A-4722-9802-E6A4D673D124}"/>
     <hyperlink ref="F6" r:id="rId2" xr:uid="{3F86E828-B315-4C62-8B68-CB46CA9A5A11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -958,23 +966,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3546799F-72C6-45E7-B9AE-E5D18315E0B6}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="52.5" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,36 +1005,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1">
+    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" ref="G2:G7" si="0">FLOOR(C2/D2, 1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1">
+    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -1039,43 +1041,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1">
+    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1">
+    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1099,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1">
+    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1127,7 +1135,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{240A5452-EDA1-41CC-86F1-48A9EB0167F1}"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{240A5452-EDA1-41CC-86F1-48A9EB0167F1}"/>
     <hyperlink ref="F6" r:id="rId2" xr:uid="{7F4F22C8-A15F-4693-B9D8-C10CADE1CE28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/data/mission.xlsx
+++ b/public/data/mission.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908062FA-7BCF-4BBF-8BC4-FB2C53FAAE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00240A0A-988A-4DD6-82FA-A120C0FA8CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>tagIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,10 @@
   </si>
   <si>
     <t>Character picture at the left side of tasks page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,7 +609,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -657,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G7" si="0">FLOOR(C2/D2, 1)</f>
+        <f>FLOOR(C2/D2, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -666,16 +670,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="0"/>
+        <f>FLOOR(C3/D3, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -684,17 +688,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>FLOOR(C4/D4, 1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -717,16 +724,16 @@
         <v>23</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f>FLOOR(C5/D5, 1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -734,23 +741,21 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f>FLOOR(C6/D6, 1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -758,23 +763,25 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f>FLOOR(C7/D7, 1)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-    <sortCondition ref="G1:G7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+    <sortCondition ref="G1:G11"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" xr:uid="{8D394F15-AE70-4076-8429-1743A563ECD9}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{56C17B09-920A-4E32-B055-E862B78C3D3E}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{56C17B09-920A-4E32-B055-E862B78C3D3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>
@@ -838,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G7" si="0">FLOOR(C2/D2, 1)</f>
+        <f>FLOOR(C2/D2, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -847,16 +854,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="0"/>
+        <f>FLOOR(C3/D3, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -865,17 +872,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>FLOOR(C4/D4, 1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -898,16 +908,16 @@
         <v>23</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f>FLOOR(C5/D5, 1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -915,23 +925,21 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f>FLOOR(C6/D6, 1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -939,23 +947,25 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f>FLOOR(C7/D7, 1)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-    <sortCondition ref="G1:G7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+    <sortCondition ref="G1:G8"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" xr:uid="{9BEA0624-A66A-4722-9802-E6A4D673D124}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{3F86E828-B315-4C62-8B68-CB46CA9A5A11}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{3F86E828-B315-4C62-8B68-CB46CA9A5A11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>
@@ -968,7 +978,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1019,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G7" si="0">FLOOR(C2/D2, 1)</f>
+        <f>FLOOR(C2/D2, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1028,16 +1038,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="0"/>
+        <f>FLOOR(C3/D3, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1046,17 +1056,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>FLOOR(C4/D4, 1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1079,16 +1092,16 @@
         <v>23</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f>FLOOR(C5/D5, 1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1096,23 +1109,21 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f>FLOOR(C6/D6, 1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1120,23 +1131,25 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f>FLOOR(C7/D7, 1)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-    <sortCondition ref="G1:G7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+    <sortCondition ref="G1:G8"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" xr:uid="{240A5452-EDA1-41CC-86F1-48A9EB0167F1}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{7F4F22C8-A15F-4693-B9D8-C10CADE1CE28}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{7F4F22C8-A15F-4693-B9D8-C10CADE1CE28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>

--- a/public/data/mission.xlsx
+++ b/public/data/mission.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00240A0A-988A-4DD6-82FA-A120C0FA8CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5619CA72-F098-4A33-95A3-76F4F6052FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,32 @@
     <author>Rui Yang</author>
   </authors>
   <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{4E409F5E-4E6B-40A0-98BD-B6B4399D73F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Rui Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+设置为xxx开头的字符串则会在点击时显示xxx后的文本信息提示</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G1" authorId="0" shapeId="0" xr:uid="{7C6BB744-4B1F-45B2-B183-247CE55D5716}">
       <text>
         <r>
@@ -132,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>tagIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +262,30 @@
   </si>
   <si>
     <t>2025-03-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コミックマーケット107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-12-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comic Market 107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx品書き準備中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx菜单准备中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxMenu preparing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +293,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +328,21 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -605,11 +670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -649,10 +714,10 @@
     </row>
     <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -660,8 +725,14 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G2" s="2">
-        <f>FLOOR(C2/D2, 1)</f>
+        <f t="shared" ref="G2" si="0">FLOOR(C2/D2, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -670,16 +741,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
-        <f>FLOOR(C3/D3, 1)</f>
+        <f t="shared" ref="G3:G8" si="1">FLOOR(C3/D3, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -688,28 +759,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2">
-        <f>FLOOR(C4/D4, 1)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -717,23 +785,20 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="G5" s="2">
-        <f>FLOOR(C5/D5, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -741,47 +806,71 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" s="2">
-        <f>FLOOR(C6/D6, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="2">
-        <f>FLOOR(C7/D7, 1)</f>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-    <sortCondition ref="G1:G11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G12">
+    <sortCondition ref="G1:G12"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{8D394F15-AE70-4076-8429-1743A563ECD9}"/>
-    <hyperlink ref="F7" r:id="rId2" xr:uid="{56C17B09-920A-4E32-B055-E862B78C3D3E}"/>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{8D394F15-AE70-4076-8429-1743A563ECD9}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{56C17B09-920A-4E32-B055-E862B78C3D3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>
@@ -790,11 +879,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31AE31C-89C8-41A9-900C-A2E47F7466A0}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -833,10 +922,10 @@
     </row>
     <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -844,8 +933,14 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G2" s="2">
-        <f>FLOOR(C2/D2, 1)</f>
+        <f t="shared" ref="G2" si="0">FLOOR(C2/D2, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -854,16 +949,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
-        <f>FLOOR(C3/D3, 1)</f>
+        <f t="shared" ref="G3:G8" si="1">FLOOR(C3/D3, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -872,28 +967,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2">
-        <f>FLOOR(C4/D4, 1)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -901,23 +993,20 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="G5" s="2">
-        <f>FLOOR(C5/D5, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -925,47 +1014,71 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" s="2">
-        <f>FLOOR(C6/D6, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="2">
-        <f>FLOOR(C7/D7, 1)</f>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
-    <sortCondition ref="G1:G8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G9">
+    <sortCondition ref="G1:G9"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{9BEA0624-A66A-4722-9802-E6A4D673D124}"/>
-    <hyperlink ref="F7" r:id="rId2" xr:uid="{3F86E828-B315-4C62-8B68-CB46CA9A5A11}"/>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{9BEA0624-A66A-4722-9802-E6A4D673D124}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{3F86E828-B315-4C62-8B68-CB46CA9A5A11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>
@@ -974,11 +1087,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3546799F-72C6-45E7-B9AE-E5D18315E0B6}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1017,10 +1130,10 @@
     </row>
     <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -1028,8 +1141,14 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G2" s="2">
-        <f>FLOOR(C2/D2, 1)</f>
+        <f t="shared" ref="G2" si="0">FLOOR(C2/D2, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1038,16 +1157,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
-        <f>FLOOR(C3/D3, 1)</f>
+        <f t="shared" ref="G3:G8" si="1">FLOOR(C3/D3, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1056,28 +1175,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2">
-        <f>FLOOR(C4/D4, 1)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1085,23 +1201,20 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="G5" s="2">
-        <f>FLOOR(C5/D5, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1109,47 +1222,71 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" s="2">
-        <f>FLOOR(C6/D6, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="2">
-        <f>FLOOR(C7/D7, 1)</f>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
-    <sortCondition ref="G1:G8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G9">
+    <sortCondition ref="G1:G9"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{240A5452-EDA1-41CC-86F1-48A9EB0167F1}"/>
-    <hyperlink ref="F7" r:id="rId2" xr:uid="{7F4F22C8-A15F-4693-B9D8-C10CADE1CE28}"/>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{240A5452-EDA1-41CC-86F1-48A9EB0167F1}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{7F4F22C8-A15F-4693-B9D8-C10CADE1CE28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>

--- a/public/data/mission.xlsx
+++ b/public/data/mission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5619CA72-F098-4A33-95A3-76F4F6052FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3F2FC6-DD66-4B3A-AFF6-4DBA5AC10D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>tagIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,15 +277,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xxx品書き準備中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx菜单准备中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxMenu preparing</t>
+    <t>https://x.com/ApricotLemonTea/status/2002720423524581563</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -387,6 +379,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -672,9 +667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -728,7 +723,7 @@
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="2">
@@ -871,9 +866,10 @@
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" xr:uid="{8D394F15-AE70-4076-8429-1743A563ECD9}"/>
     <hyperlink ref="F8" r:id="rId2" xr:uid="{56C17B09-920A-4E32-B055-E862B78C3D3E}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{C6A8C9A3-3A18-4BCB-82B6-1FCA8F3731D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -883,7 +879,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -936,8 +932,8 @@
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
+      <c r="F2" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" ref="G2" si="0">FLOOR(C2/D2, 1)</f>
@@ -1089,9 +1085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3546799F-72C6-45E7-B9AE-E5D18315E0B6}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1144,8 +1140,8 @@
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
+      <c r="F2" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" ref="G2" si="0">FLOOR(C2/D2, 1)</f>

--- a/public/data/mission.xlsx
+++ b/public/data/mission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3F2FC6-DD66-4B3A-AFF6-4DBA5AC10D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807BCA6A-9ACC-44D0-8DA3-5FB72B36A460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -669,7 +669,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -709,10 +709,10 @@
     </row>
     <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -720,14 +720,8 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2" si="0">FLOOR(C2/D2, 1)</f>
+        <f>FLOOR(C2/D2, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -736,35 +730,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G8" si="1">FLOOR(C3/D3, 1)</f>
+        <f>FLOOR(C3/D3, 1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>FLOOR(C4/D4, 1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -784,7 +784,7 @@
         <v>28</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="1"/>
+        <f>FLOOR(C5/D5, 1)</f>
         <v>1</v>
       </c>
     </row>
@@ -808,7 +808,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="1"/>
+        <f>FLOOR(C6/D6, 1)</f>
         <v>1</v>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2">
-        <f t="shared" si="1"/>
+        <f>FLOOR(C7/D7, 1)</f>
         <v>1</v>
       </c>
     </row>
@@ -854,19 +854,19 @@
         <v>24</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="1"/>
+        <f>FLOOR(C8/D8, 1)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G12">
-    <sortCondition ref="G1:G12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+    <sortCondition ref="G1:G8"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" xr:uid="{8D394F15-AE70-4076-8429-1743A563ECD9}"/>
     <hyperlink ref="F8" r:id="rId2" xr:uid="{56C17B09-920A-4E32-B055-E862B78C3D3E}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{C6A8C9A3-3A18-4BCB-82B6-1FCA8F3731D3}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{C6A8C9A3-3A18-4BCB-82B6-1FCA8F3731D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId4"/>
@@ -878,214 +878,6 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2">
-        <f t="shared" ref="G2" si="0">FLOOR(C2/D2, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G8" si="1">FLOOR(C3/D3, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G9">
-    <sortCondition ref="G1:G9"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" xr:uid="{9BEA0624-A66A-4722-9802-E6A4D673D124}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{3F86E828-B315-4C62-8B68-CB46CA9A5A11}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3546799F-72C6-45E7-B9AE-E5D18315E0B6}">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
@@ -1126,10 +918,10 @@
     </row>
     <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -1137,14 +929,8 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2" si="0">FLOOR(C2/D2, 1)</f>
+        <f>FLOOR(C2/D2, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1153,35 +939,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G8" si="1">FLOOR(C3/D3, 1)</f>
+        <f>FLOOR(C3/D3, 1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>FLOOR(C4/D4, 1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1189,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1201,7 +993,7 @@
         <v>28</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="1"/>
+        <f>FLOOR(C5/D5, 1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1225,7 +1017,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="1"/>
+        <f>FLOOR(C6/D6, 1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1234,7 +1026,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1247,7 +1039,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2">
-        <f t="shared" si="1"/>
+        <f>FLOOR(C7/D7, 1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1271,13 +1063,221 @@
         <v>24</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="1"/>
+        <f>FLOOR(C8/D8, 1)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G9">
-    <sortCondition ref="G1:G9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+    <sortCondition ref="G1:G8"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{9BEA0624-A66A-4722-9802-E6A4D673D124}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{3F86E828-B315-4C62-8B68-CB46CA9A5A11}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3546799F-72C6-45E7-B9AE-E5D18315E0B6}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.5" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <f>FLOOR(C2/D2, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <f>FLOOR(C3/D3, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2">
+        <f>FLOOR(C4/D4, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2">
+        <f>FLOOR(C5/D5, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2">
+        <f>FLOOR(C6/D6, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2">
+        <f>FLOOR(C7/D7, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2">
+        <f>FLOOR(C8/D8, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+    <sortCondition ref="G1:G8"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/public/data/mission.xlsx
+++ b/public/data/mission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807BCA6A-9ACC-44D0-8DA3-5FB72B36A460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD2A3C5-15A6-4D4D-9CA1-BBB86F08D41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>tagIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,9 +189,6 @@
     <t>ミッション画面をゲーム内仕様にリニューアル</t>
   </si>
   <si>
-    <t>ローディング画面のSDイラスト</t>
-  </si>
-  <si>
     <t>Comic Market 105</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,18 +206,12 @@
     <t>大厅Live2D动图</t>
   </si>
   <si>
-    <t>加载界面的Q版图</t>
-  </si>
-  <si>
     <t>Renewal tasks page to in-game style</t>
   </si>
   <si>
     <t>Live2D memorial lobby</t>
   </si>
   <si>
-    <t>SD picture on loading page</t>
-  </si>
-  <si>
     <t>2024-12-29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,6 +269,17 @@
   </si>
   <si>
     <t>https://x.com/ApricotLemonTea/status/2002720423524581563</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMIC1☆28</t>
+  </si>
+  <si>
+    <t>2026-04-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://x.com/ApricotLemonTea/status/2008523809998217337</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,9 +669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -695,24 +697,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -720,8 +722,14 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G2" s="2">
-        <f>FLOOR(C2/D2, 1)</f>
+        <f t="shared" ref="G2" si="0">FLOOR(C2/D2, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -730,16 +738,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
-        <f>FLOOR(C3/D3, 1)</f>
+        <f t="shared" ref="G3:G8" si="1">FLOOR(C3/D3, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -748,22 +756,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="G4" s="2">
-        <f>FLOOR(C4/D4, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -772,19 +780,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" s="2">
-        <f>FLOOR(C5/D5, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -802,13 +810,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2">
-        <f>FLOOR(C6/D6, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -826,11 +834,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2">
-        <f>FLOOR(C7/D7, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -851,15 +859,15 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2">
-        <f>FLOOR(C8/D8, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G8">
     <sortCondition ref="G1:G8"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -867,9 +875,10 @@
     <hyperlink ref="F6" r:id="rId1" xr:uid="{8D394F15-AE70-4076-8429-1743A563ECD9}"/>
     <hyperlink ref="F8" r:id="rId2" xr:uid="{56C17B09-920A-4E32-B055-E862B78C3D3E}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{C6A8C9A3-3A18-4BCB-82B6-1FCA8F3731D3}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{37DB8F46-A0B8-492A-83B8-5FE670536A4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -879,7 +888,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -904,24 +913,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -929,8 +938,14 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G2" s="2">
-        <f>FLOOR(C2/D2, 1)</f>
+        <f t="shared" ref="G2" si="0">FLOOR(C2/D2, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -939,16 +954,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
-        <f>FLOOR(C3/D3, 1)</f>
+        <f t="shared" ref="G3:G8" si="1">FLOOR(C3/D3, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -957,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -966,13 +981,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2">
-        <f>FLOOR(C4/D4, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -981,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -990,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2">
-        <f>FLOOR(C5/D5, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1002,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1011,13 +1026,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2">
-        <f>FLOOR(C6/D6, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1026,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1035,11 +1050,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2">
-        <f>FLOOR(C7/D7, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1048,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1060,24 +1075,25 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2">
-        <f>FLOOR(C8/D8, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G8">
     <sortCondition ref="G1:G8"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" xr:uid="{9BEA0624-A66A-4722-9802-E6A4D673D124}"/>
     <hyperlink ref="F8" r:id="rId2" xr:uid="{3F86E828-B315-4C62-8B68-CB46CA9A5A11}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{5BDFE10B-6F25-4C54-9DBF-09C9AB18661D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1085,9 +1101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3546799F-72C6-45E7-B9AE-E5D18315E0B6}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1112,24 +1128,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -1137,8 +1153,14 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G2" s="2">
-        <f>FLOOR(C2/D2, 1)</f>
+        <f t="shared" ref="G2" si="0">FLOOR(C2/D2, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1147,16 +1169,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
-        <f>FLOOR(C3/D3, 1)</f>
+        <f t="shared" ref="G3:G8" si="1">FLOOR(C3/D3, 1)</f>
         <v>0</v>
       </c>
     </row>
@@ -1165,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1174,13 +1196,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2">
-        <f>FLOOR(C4/D4, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1189,7 +1211,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1198,10 +1220,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2">
-        <f>FLOOR(C5/D5, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1210,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1219,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2">
-        <f>FLOOR(C6/D6, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1234,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1243,11 +1265,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2">
-        <f>FLOOR(C7/D7, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1256,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1268,23 +1290,24 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2">
-        <f>FLOOR(C8/D8, 1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G8">
     <sortCondition ref="G1:G8"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" xr:uid="{240A5452-EDA1-41CC-86F1-48A9EB0167F1}"/>
     <hyperlink ref="F8" r:id="rId2" xr:uid="{7F4F22C8-A15F-4693-B9D8-C10CADE1CE28}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{ECB754AD-D93E-4319-A540-98B70F2DFFA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>